--- a/biology/Botanique/Garcinia_mannii/Garcinia_mannii.xlsx
+++ b/biology/Botanique/Garcinia_mannii/Garcinia_mannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garcinia mannii Oliv. est une espèce de plantes à fleurs de la famille des Clusiaceae et du genre Garcinia, présente en Afrique tropicale.
-Son épithète spécifique mannii rend hommage au botaniste allemand Gustav Mann qui, en 1861, réalisa l'ascension du mont Cameroun avec Richard Francis Burton et y collecta de nombreuses plantes[3].
+Son épithète spécifique mannii rend hommage au botaniste allemand Gustav Mann qui, en 1861, réalisa l'ascension du mont Cameroun avec Richard Francis Burton et y collecta de nombreuses plantes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre pouvant atteindre 30 m, avec un fût cylindrique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre pouvant atteindre 30 m, avec un fût cylindrique.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, du Nigeria au Gabon[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, du Nigeria au Gabon.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans la forêt, à une altitude moyenne[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans la forêt, à une altitude moyenne. 
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En médecine traditionnelle, racines et fruits sont considérés comme aphrodisiaques, astringents, efficaces contre la diarrhée, la dysenterie, la toux[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En médecine traditionnelle, racines et fruits sont considérés comme aphrodisiaques, astringents, efficaces contre la diarrhée, la dysenterie, la toux.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (21 décembre 2017)[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 décembre 2017) :
 variété Garcinia mannii var. brevipedicellata Baker f.</t>
         </is>
       </c>
